--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H2">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I2">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J2">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N2">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q2">
-        <v>173.953822969428</v>
+        <v>297.4565564069374</v>
       </c>
       <c r="R2">
-        <v>173.953822969428</v>
+        <v>2677.109007662436</v>
       </c>
       <c r="S2">
-        <v>0.01136220566692273</v>
+        <v>0.01880366758068968</v>
       </c>
       <c r="T2">
-        <v>0.01136220566692273</v>
+        <v>0.01880366758068969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H3">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I3">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J3">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N3">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q3">
-        <v>31.84574820555756</v>
+        <v>55.86328138328533</v>
       </c>
       <c r="R3">
-        <v>31.84574820555756</v>
+        <v>502.769532449568</v>
       </c>
       <c r="S3">
-        <v>0.002080080417618489</v>
+        <v>0.003531388199293123</v>
       </c>
       <c r="T3">
-        <v>0.002080080417618489</v>
+        <v>0.003531388199293124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H4">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I4">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J4">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.245779115138495</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N4">
-        <v>0.245779115138495</v>
+        <v>0.055439</v>
       </c>
       <c r="O4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q4">
-        <v>9.451802400534671</v>
+        <v>1.208570126081334</v>
       </c>
       <c r="R4">
-        <v>9.451802400534671</v>
+        <v>10.877131134732</v>
       </c>
       <c r="S4">
-        <v>0.0006173668446301583</v>
+        <v>7.639956292540338E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006173668446301583</v>
+        <v>7.639956292540341E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2618.64346320462</v>
+        <v>65.399996</v>
       </c>
       <c r="H5">
-        <v>2618.64346320462</v>
+        <v>196.199988</v>
       </c>
       <c r="I5">
-        <v>0.9573733069007155</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J5">
-        <v>0.9573733069007155</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.52339298607913</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N5">
-        <v>4.52339298607913</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q5">
-        <v>11845.15347450174</v>
+        <v>16.54491278807867</v>
       </c>
       <c r="R5">
-        <v>11845.15347450174</v>
+        <v>148.904215092708</v>
       </c>
       <c r="S5">
-        <v>0.7736942346889756</v>
+        <v>0.001045883956892595</v>
       </c>
       <c r="T5">
-        <v>0.7736942346889756</v>
+        <v>0.001045883956892595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H6">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I6">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J6">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.828098121734167</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N6">
-        <v>0.828098121734167</v>
+        <v>13.644797</v>
       </c>
       <c r="O6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q6">
-        <v>2168.4937333712</v>
+        <v>11932.46344026722</v>
       </c>
       <c r="R6">
-        <v>2168.4937333712</v>
+        <v>107392.170962405</v>
       </c>
       <c r="S6">
-        <v>0.1416403006579907</v>
+        <v>0.7543087254817848</v>
       </c>
       <c r="T6">
-        <v>0.1416403006579907</v>
+        <v>0.754308725481785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H7">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.245779115138495</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N7">
-        <v>0.245779115138495</v>
+        <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q7">
-        <v>643.6078732496355</v>
+        <v>2240.954345775066</v>
       </c>
       <c r="R7">
-        <v>643.6078732496355</v>
+        <v>20168.5891119756</v>
       </c>
       <c r="S7">
-        <v>0.0420387715537491</v>
+        <v>0.1416615625839791</v>
       </c>
       <c r="T7">
-        <v>0.0420387715537491</v>
+        <v>0.1416615625839792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.202935382502835</v>
+        <v>2623.51945</v>
       </c>
       <c r="H8">
-        <v>0.202935382502835</v>
+        <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J8">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.52339298607913</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N8">
-        <v>4.52339298607913</v>
+        <v>0.055439</v>
       </c>
       <c r="O8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q8">
-        <v>0.9179564858406092</v>
+        <v>48.48176492951668</v>
       </c>
       <c r="R8">
-        <v>0.9179564858406092</v>
+        <v>436.33588436565</v>
       </c>
       <c r="S8">
-        <v>5.995850052251911E-05</v>
+        <v>0.003064766843507065</v>
       </c>
       <c r="T8">
-        <v>5.995850052251911E-05</v>
+        <v>0.003064766843507065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.202935382502835</v>
+        <v>2623.51945</v>
       </c>
       <c r="H9">
-        <v>0.202935382502835</v>
+        <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J9">
-        <v>7.419296325133949E-05</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.828098121734167</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N9">
-        <v>0.828098121734167</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q9">
-        <v>0.1680504090840024</v>
+        <v>663.6988249674835</v>
       </c>
       <c r="R9">
-        <v>0.1680504090840024</v>
+        <v>5973.289424707351</v>
       </c>
       <c r="S9">
-        <v>1.097661021660048E-05</v>
+        <v>0.04195561270906935</v>
       </c>
       <c r="T9">
-        <v>1.097661021660048E-05</v>
+        <v>0.04195561270906936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H10">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I10">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J10">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245779115138495</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N10">
-        <v>0.245779115138495</v>
+        <v>13.644797</v>
       </c>
       <c r="O10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q10">
-        <v>0.04987727874183881</v>
+        <v>1.000986856185667</v>
       </c>
       <c r="R10">
-        <v>0.04987727874183881</v>
+        <v>9.008881705671</v>
       </c>
       <c r="S10">
-        <v>3.257852512219893E-06</v>
+        <v>6.327722045771632E-05</v>
       </c>
       <c r="T10">
-        <v>3.257852512219893E-06</v>
+        <v>6.327722045771633E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>77.93470691999789</v>
+        <v>0.220081</v>
       </c>
       <c r="H11">
-        <v>77.93470691999789</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I11">
-        <v>0.02849284720686172</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J11">
-        <v>0.02849284720686172</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52339298607913</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N11">
-        <v>4.52339298607913</v>
+        <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q11">
-        <v>352.5293066540511</v>
+        <v>0.1879884951386666</v>
       </c>
       <c r="R11">
-        <v>352.5293066540511</v>
+        <v>1.691896456248</v>
       </c>
       <c r="S11">
-        <v>0.02302628604215821</v>
+        <v>1.188366198506541E-05</v>
       </c>
       <c r="T11">
-        <v>0.02302628604215821</v>
+        <v>1.188366198506541E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.93470691999789</v>
+        <v>0.220081</v>
       </c>
       <c r="H12">
-        <v>77.93470691999789</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I12">
-        <v>0.02849284720686172</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J12">
-        <v>0.02849284720686172</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.828098121734167</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N12">
-        <v>0.828098121734167</v>
+        <v>0.055439</v>
       </c>
       <c r="O12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q12">
-        <v>64.53758441835303</v>
+        <v>0.004067023519666667</v>
       </c>
       <c r="R12">
-        <v>64.53758441835303</v>
+        <v>0.03660321167699999</v>
       </c>
       <c r="S12">
-        <v>0.004215425075978866</v>
+        <v>2.570962268588778E-07</v>
       </c>
       <c r="T12">
-        <v>0.004215425075978866</v>
+        <v>2.570962268588778E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.220081</v>
+      </c>
+      <c r="H13">
+        <v>0.6602429999999999</v>
+      </c>
+      <c r="I13">
+        <v>7.89375383209421E-05</v>
+      </c>
+      <c r="J13">
+        <v>7.893753832094211E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P13">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q13">
+        <v>0.05567616474033333</v>
+      </c>
+      <c r="R13">
+        <v>0.501085482663</v>
+      </c>
+      <c r="S13">
+        <v>3.519559651301495E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.519559651301496E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.250186</v>
+      </c>
+      <c r="H14">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I14">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.644797</v>
+      </c>
+      <c r="O14">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P14">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q14">
+        <v>1.137912394080667</v>
+      </c>
+      <c r="R14">
+        <v>10.241211546726</v>
+      </c>
+      <c r="S14">
+        <v>7.193294594914698E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.1932945949147E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.250186</v>
+      </c>
+      <c r="H15">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I15">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N15">
+        <v>2.562536</v>
+      </c>
+      <c r="O15">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P15">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q15">
+        <v>0.2137035438986666</v>
+      </c>
+      <c r="R15">
+        <v>1.923331895088</v>
+      </c>
+      <c r="S15">
+        <v>1.350923458815424E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.350923458815425E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.250186</v>
+      </c>
+      <c r="H16">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I16">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055439</v>
+      </c>
+      <c r="O16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q16">
+        <v>0.004623353884666667</v>
+      </c>
+      <c r="R16">
+        <v>0.041610184962</v>
+      </c>
+      <c r="S16">
+        <v>2.922645599252785E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.922645599252785E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.250186</v>
+      </c>
+      <c r="H17">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I17">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P17">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q17">
+        <v>0.06329213767533334</v>
+      </c>
+      <c r="R17">
+        <v>0.5696292390780001</v>
+      </c>
+      <c r="S17">
+        <v>4.001002135216198E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.001002135216199E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H18">
+        <v>295.950316</v>
+      </c>
+      <c r="I18">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J18">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.644797</v>
+      </c>
+      <c r="O18">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P18">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q18">
+        <v>448.6868871006502</v>
+      </c>
+      <c r="R18">
+        <v>4038.181983905852</v>
+      </c>
+      <c r="S18">
+        <v>0.02836366821013295</v>
+      </c>
+      <c r="T18">
+        <v>0.02836366821013295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H19">
+        <v>295.950316</v>
+      </c>
+      <c r="I19">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J19">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.562536</v>
+      </c>
+      <c r="O19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q19">
+        <v>84.26481544015287</v>
+      </c>
+      <c r="R19">
+        <v>758.3833389613759</v>
+      </c>
+      <c r="S19">
+        <v>0.005326786531197294</v>
+      </c>
+      <c r="T19">
+        <v>0.005326786531197295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="H13">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="I13">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="J13">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="N13">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="O13">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="P13">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="Q13">
-        <v>19.15472330537503</v>
-      </c>
-      <c r="R13">
-        <v>19.15472330537503</v>
-      </c>
-      <c r="S13">
-        <v>0.001251136088724643</v>
-      </c>
-      <c r="T13">
-        <v>0.001251136088724643</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H20">
+        <v>295.950316</v>
+      </c>
+      <c r="I20">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J20">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.055439</v>
+      </c>
+      <c r="O20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q20">
+        <v>1.823021063191556</v>
+      </c>
+      <c r="R20">
+        <v>16.407189568724</v>
+      </c>
+      <c r="S20">
+        <v>0.0001152419784553453</v>
+      </c>
+      <c r="T20">
+        <v>0.0001152419784553454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H21">
+        <v>295.950316</v>
+      </c>
+      <c r="I21">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J21">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P21">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q21">
+        <v>24.95653653059511</v>
+      </c>
+      <c r="R21">
+        <v>224.608828775356</v>
+      </c>
+      <c r="S21">
+        <v>0.001577623376519747</v>
+      </c>
+      <c r="T21">
+        <v>0.001577623376519747</v>
       </c>
     </row>
   </sheetData>
